--- a/docs/DQC_US_0015/DQC_0015_ListOfElements_V2.xlsx
+++ b/docs/DQC_US_0015/DQC_0015_ListOfElements_V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Google Drive/Committees/Data Quality Committee/Rules/2 - Guidance and Rule Preparation/2a - Contributed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Google Drive/Committees/Data Quality Committee/Rules/2 - Guidance and Rules in Progress/2a - Contributed/DQC_US_0015/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="67140" yWindow="9580" windowWidth="35220" windowHeight="22200" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="720" windowWidth="35220" windowHeight="22200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="V2.0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="456">
   <si>
     <t>Release Version</t>
   </si>
@@ -1390,13 +1390,16 @@
   </si>
   <si>
     <t>Amount of decrease in unrecognized tax benefits resulting from lapses of applicable statutes of limitations.</t>
+  </si>
+  <si>
+    <t>Pending Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1441,6 +1444,11 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1480,7 +1488,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1503,6 +1511,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1788,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I997"/>
+  <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="G37" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4266,22 +4275,22 @@
         <v>10</v>
       </c>
       <c r="D86" s="6">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4295,22 +4304,22 @@
         <v>10</v>
       </c>
       <c r="D87" s="6">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4324,22 +4333,22 @@
         <v>10</v>
       </c>
       <c r="D88" s="6">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4353,22 +4362,22 @@
         <v>10</v>
       </c>
       <c r="D89" s="6">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4382,22 +4391,22 @@
         <v>10</v>
       </c>
       <c r="D90" s="6">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4411,22 +4420,22 @@
         <v>10</v>
       </c>
       <c r="D91" s="6">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4440,22 +4449,22 @@
         <v>10</v>
       </c>
       <c r="D92" s="6">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4469,22 +4478,22 @@
         <v>10</v>
       </c>
       <c r="D93" s="6">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4498,22 +4507,22 @@
         <v>10</v>
       </c>
       <c r="D94" s="6">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4527,22 +4536,22 @@
         <v>10</v>
       </c>
       <c r="D95" s="6">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4556,22 +4565,22 @@
         <v>10</v>
       </c>
       <c r="D96" s="6">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4585,22 +4594,22 @@
         <v>10</v>
       </c>
       <c r="D97" s="6">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4614,22 +4623,22 @@
         <v>10</v>
       </c>
       <c r="D98" s="6">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4643,22 +4652,22 @@
         <v>10</v>
       </c>
       <c r="D99" s="6">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4672,22 +4681,22 @@
         <v>10</v>
       </c>
       <c r="D100" s="6">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4701,22 +4710,22 @@
         <v>10</v>
       </c>
       <c r="D101" s="6">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4730,22 +4739,22 @@
         <v>10</v>
       </c>
       <c r="D102" s="6">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4759,22 +4768,22 @@
         <v>10</v>
       </c>
       <c r="D103" s="6">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4788,22 +4797,22 @@
         <v>10</v>
       </c>
       <c r="D104" s="6">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4817,22 +4826,22 @@
         <v>10</v>
       </c>
       <c r="D105" s="6">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4846,22 +4855,22 @@
         <v>10</v>
       </c>
       <c r="D106" s="6">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4875,22 +4884,22 @@
         <v>10</v>
       </c>
       <c r="D107" s="6">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4904,22 +4913,22 @@
         <v>10</v>
       </c>
       <c r="D108" s="6">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4933,22 +4942,22 @@
         <v>10</v>
       </c>
       <c r="D109" s="6">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4962,22 +4971,22 @@
         <v>10</v>
       </c>
       <c r="D110" s="6">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -4991,22 +5000,22 @@
         <v>10</v>
       </c>
       <c r="D111" s="6">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5020,22 +5029,22 @@
         <v>10</v>
       </c>
       <c r="D112" s="6">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5049,22 +5058,22 @@
         <v>10</v>
       </c>
       <c r="D113" s="6">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5078,22 +5087,22 @@
         <v>10</v>
       </c>
       <c r="D114" s="6">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5107,22 +5116,22 @@
         <v>10</v>
       </c>
       <c r="D115" s="6">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5136,22 +5145,22 @@
         <v>10</v>
       </c>
       <c r="D116" s="6">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5165,22 +5174,22 @@
         <v>10</v>
       </c>
       <c r="D117" s="6">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5194,22 +5203,22 @@
         <v>10</v>
       </c>
       <c r="D118" s="6">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5223,22 +5232,22 @@
         <v>10</v>
       </c>
       <c r="D119" s="6">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5252,22 +5261,22 @@
         <v>10</v>
       </c>
       <c r="D120" s="6">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5281,22 +5290,22 @@
         <v>10</v>
       </c>
       <c r="D121" s="6">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5310,22 +5319,22 @@
         <v>10</v>
       </c>
       <c r="D122" s="6">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5339,22 +5348,22 @@
         <v>10</v>
       </c>
       <c r="D123" s="6">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5368,22 +5377,22 @@
         <v>10</v>
       </c>
       <c r="D124" s="6">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5397,22 +5406,22 @@
         <v>10</v>
       </c>
       <c r="D125" s="6">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5426,22 +5435,22 @@
         <v>10</v>
       </c>
       <c r="D126" s="6">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5455,22 +5464,22 @@
         <v>10</v>
       </c>
       <c r="D127" s="6">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5484,22 +5493,22 @@
         <v>10</v>
       </c>
       <c r="D128" s="6">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5513,22 +5522,22 @@
         <v>10</v>
       </c>
       <c r="D129" s="6">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5542,22 +5551,22 @@
         <v>10</v>
       </c>
       <c r="D130" s="6">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5571,22 +5580,22 @@
         <v>10</v>
       </c>
       <c r="D131" s="6">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5600,22 +5609,22 @@
         <v>10</v>
       </c>
       <c r="D132" s="6">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5629,22 +5638,22 @@
         <v>10</v>
       </c>
       <c r="D133" s="6">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5658,22 +5667,22 @@
         <v>10</v>
       </c>
       <c r="D134" s="6">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5687,22 +5696,22 @@
         <v>10</v>
       </c>
       <c r="D135" s="6">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5716,22 +5725,22 @@
         <v>10</v>
       </c>
       <c r="D136" s="6">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5745,22 +5754,22 @@
         <v>10</v>
       </c>
       <c r="D137" s="6">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5774,22 +5783,22 @@
         <v>10</v>
       </c>
       <c r="D138" s="6">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5803,22 +5812,22 @@
         <v>10</v>
       </c>
       <c r="D139" s="6">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5832,22 +5841,20 @@
         <v>10</v>
       </c>
       <c r="D140" s="6">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H140" s="3"/>
       <c r="I140" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5861,20 +5868,22 @@
         <v>10</v>
       </c>
       <c r="D141" s="6">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H141" s="3"/>
+        <v>264</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I141" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5888,22 +5897,22 @@
         <v>10</v>
       </c>
       <c r="D142" s="6">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5917,22 +5926,22 @@
         <v>10</v>
       </c>
       <c r="D143" s="6">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5946,22 +5955,22 @@
         <v>10</v>
       </c>
       <c r="D144" s="6">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -5975,22 +5984,22 @@
         <v>10</v>
       </c>
       <c r="D145" s="6">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6004,22 +6013,22 @@
         <v>10</v>
       </c>
       <c r="D146" s="6">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6033,22 +6042,22 @@
         <v>10</v>
       </c>
       <c r="D147" s="6">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6062,52 +6071,34 @@
         <v>10</v>
       </c>
       <c r="D148" s="6">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="6">
-        <v>2773</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" s="3" t="s">
         <v>454</v>
       </c>
+    </row>
+    <row r="149" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
@@ -6143,7 +6134,9 @@
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="4"/>
+      <c r="A153" s="12" t="s">
+        <v>455</v>
+      </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -6164,16 +6157,34 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
+    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="6">
+        <v>2710</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
@@ -6580,7 +6591,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
+      <c r="I192" s="5"/>
     </row>
     <row r="193" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
@@ -7393,7 +7404,7 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
-      <c r="H266" s="3"/>
+      <c r="H266" s="5"/>
       <c r="I266" s="5"/>
     </row>
     <row r="267" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -15425,17 +15436,6 @@
       <c r="G996" s="5"/>
       <c r="H996" s="5"/>
       <c r="I996" s="5"/>
-    </row>
-    <row r="997" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
-      <c r="I997" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
